--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simona.bottani/clinica/clinica/iotools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge.samper/ownCloud/Workspace/github/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE756CCB-234A-E54E-BEEF-AF53AFC836C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="34020" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="2520" yWindow="460" windowWidth="34020" windowHeight="19900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
     <sheet name="sessions.tsv" sheetId="2" r:id="rId2"/>
     <sheet name="scans.tsv" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="939">
   <si>
     <t>Field</t>
   </si>
@@ -2874,7 +2875,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3183,6 +3184,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3204,7 +3208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3255,7 +3265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3306,7 +3322,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3357,7 +3379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3408,7 +3436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3459,7 +3493,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3510,7 +3550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3561,7 +3607,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3612,7 +3664,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3663,7 +3721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3714,7 +3778,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3765,7 +3835,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3816,7 +3892,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3867,7 +3949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3918,7 +4006,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3969,7 +4063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4020,7 +4120,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4071,7 +4177,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4122,7 +4234,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4173,7 +4291,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4224,7 +4348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4275,7 +4405,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4326,7 +4462,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4377,7 +4519,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4428,7 +4576,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4479,7 +4633,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4530,7 +4690,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4581,7 +4747,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="28" name="Rectangle 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4632,7 +4804,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="AutoShape 1"/>
+        <xdr:cNvPr id="29" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4688,7 +4866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="AutoShape 1"/>
+        <xdr:cNvPr id="30" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4744,7 +4928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="AutoShape 1"/>
+        <xdr:cNvPr id="31" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4800,7 +4990,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1024" name="AutoShape 1"/>
+        <xdr:cNvPr id="1024" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4856,7 +5052,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 1"/>
+        <xdr:cNvPr id="1026" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4912,7 +5114,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="AutoShape 1"/>
+        <xdr:cNvPr id="1027" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4968,7 +5176,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="AutoShape 1"/>
+        <xdr:cNvPr id="1028" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5024,7 +5238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="AutoShape 1"/>
+        <xdr:cNvPr id="1029" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5080,7 +5300,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="AutoShape 1"/>
+        <xdr:cNvPr id="1030" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5136,7 +5362,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1031" name="AutoShape 1"/>
+        <xdr:cNvPr id="1031" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5192,7 +5424,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="AutoShape 1"/>
+        <xdr:cNvPr id="1032" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5248,7 +5486,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1033" name="AutoShape 1"/>
+        <xdr:cNvPr id="1033" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5304,7 +5548,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="AutoShape 1"/>
+        <xdr:cNvPr id="32" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5360,7 +5610,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="AutoShape 1"/>
+        <xdr:cNvPr id="33" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5416,7 +5672,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="AutoShape 1"/>
+        <xdr:cNvPr id="34" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5472,7 +5734,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="AutoShape 1"/>
+        <xdr:cNvPr id="35" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5528,7 +5796,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="AutoShape 1"/>
+        <xdr:cNvPr id="36" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5584,7 +5858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="AutoShape 1"/>
+        <xdr:cNvPr id="37" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5640,7 +5920,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="AutoShape 1"/>
+        <xdr:cNvPr id="38" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5696,7 +5982,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="AutoShape 1"/>
+        <xdr:cNvPr id="39" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5752,7 +6044,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="AutoShape 1"/>
+        <xdr:cNvPr id="40" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5808,7 +6106,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="AutoShape 1"/>
+        <xdr:cNvPr id="41" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5864,7 +6168,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="AutoShape 1"/>
+        <xdr:cNvPr id="42" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5920,7 +6230,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="AutoShape 1"/>
+        <xdr:cNvPr id="43" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5976,7 +6292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="AutoShape 1"/>
+        <xdr:cNvPr id="44" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6032,7 +6354,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="AutoShape 1"/>
+        <xdr:cNvPr id="45" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6088,7 +6416,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="AutoShape 1"/>
+        <xdr:cNvPr id="46" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6126,6 +6460,114 @@
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13246100" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6394,11 +6836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6408,7 +6850,7 @@
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="77.33203125" style="1" customWidth="1"/>
@@ -15879,12 +16321,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N431"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15896,7 +16338,7 @@
     <col min="5" max="5" width="21" style="9" customWidth="1"/>
     <col min="6" max="6" width="65.6640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="36" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="21.5" style="9" customWidth="1"/>
@@ -15943,7 +16385,7 @@
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -15957,7 +16399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -15983,7 +16425,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -15992,6 +16434,12 @@
       </c>
       <c r="D4" s="9" t="s">
         <v>76</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16053,12 +16501,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>857</v>
       </c>
@@ -16071,10 +16519,10 @@
       <c r="G13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="9" t="s">
         <v>907</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -20422,7 +20870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge.samper/ownCloud/Workspace/github/clinica/clinica/iotools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandre.routier/Projects/Git/clinica_t1_linear/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE756CCB-234A-E54E-BEEF-AF53AFC836C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30152F-6A89-224E-98FF-4894B6AC576A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="460" windowWidth="34020" windowHeight="19900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>It is exactly ? or does it include non alphanumeric characters ?
-	-Olivier Colliot</t>
+          <t xml:space="preserve">It is exactly ? or does it include non alphanumeric characters ?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Olivier Colliot</t>
         </r>
       </text>
     </comment>
@@ -2767,21 +2777,9 @@
     <t>APGEN2</t>
   </si>
   <si>
-    <t>aibl_apoeres_28-Apr-2015.csv</t>
-  </si>
-  <si>
-    <t>aibl_ptdemog_28-Apr-2015.csv</t>
-  </si>
-  <si>
     <t>MMSCORE</t>
   </si>
   <si>
-    <t>aibl_mmse_28-Apr-2015.csv</t>
-  </si>
-  <si>
-    <t>aibl_pdxconv_28-Apr-2015.csv</t>
-  </si>
-  <si>
     <t>OASIS</t>
   </si>
   <si>
@@ -2857,9 +2855,6 @@
     <t>DXCURREN</t>
   </si>
   <si>
-    <t>aibl_neurobat_28-Apr-2015.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -2869,14 +2864,29 @@
     <t>CDGLOBAL</t>
   </si>
   <si>
-    <t>aibl_cdr_28-Apr-2015.csv</t>
+    <t>aibl_neurobat_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_ptdemog_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_cdr_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_mmse_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_pdxconv_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_apoeres_*.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2912,11 +2922,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -2993,15 +2998,34 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3093,17 +3117,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3113,69 +3137,70 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6571,6 +6596,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6839,8 +6918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1021"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6850,7 +6929,7 @@
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="77.33203125" style="1" customWidth="1"/>
@@ -6859,80 +6938,59 @@
     <col min="12" max="12" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:34" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>909</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>910</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
+      <c r="G1" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>906</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="16"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -6955,33 +7013,33 @@
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:34" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>905</v>
+      <c r="E3" s="16" t="s">
+        <v>928</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>934</v>
       </c>
       <c r="G3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="H3" t="s">
-        <v>912</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+        <v>908</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -7006,24 +7064,24 @@
       <c r="AH3"/>
     </row>
     <row r="4" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -7048,24 +7106,24 @@
       <c r="AH4"/>
     </row>
     <row r="5" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -7090,26 +7148,26 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -7134,30 +7192,30 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="F7" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -7182,34 +7240,34 @@
       <c r="AH7"/>
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>915</v>
+      <c r="F8" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>911</v>
       </c>
       <c r="H8" t="s">
-        <v>912</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+        <v>908</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
@@ -7234,30 +7292,30 @@
       <c r="AH8"/>
     </row>
     <row r="9" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
-        <v>916</v>
+      <c r="E9" s="16"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="16" t="s">
+        <v>912</v>
       </c>
       <c r="H9" t="s">
-        <v>912</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+        <v>908</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
@@ -7282,24 +7340,24 @@
       <c r="AH9"/>
     </row>
     <row r="10" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
@@ -7324,30 +7382,30 @@
       <c r="AH10"/>
     </row>
     <row r="11" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>917</v>
+      <c r="D11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="16" t="s">
+        <v>913</v>
       </c>
       <c r="H11" t="s">
-        <v>912</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+        <v>908</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -7372,26 +7430,26 @@
       <c r="AH11"/>
     </row>
     <row r="12" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -7417,19 +7475,19 @@
     </row>
     <row r="13" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="17" t="s">
-        <v>919</v>
+      <c r="B13" s="16" t="s">
+        <v>915</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -7454,30 +7512,30 @@
       <c r="AH13"/>
     </row>
     <row r="14" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
-        <v>905</v>
+      <c r="F14" s="22" t="s">
+        <v>934</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
@@ -7503,19 +7561,19 @@
     </row>
     <row r="15" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
@@ -7540,24 +7598,24 @@
       <c r="AH15"/>
     </row>
     <row r="16" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="16" t="s">
         <v>914</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
-        <v>918</v>
-      </c>
       <c r="H16" t="s">
-        <v>912</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+        <v>908</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
@@ -7582,30 +7640,30 @@
       <c r="AH16"/>
     </row>
     <row r="17" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
-        <v>918</v>
+      <c r="E17" s="16"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="16" t="s">
+        <v>914</v>
       </c>
       <c r="H17" t="s">
-        <v>912</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+        <v>908</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -7630,22 +7688,22 @@
       <c r="AH17"/>
     </row>
     <row r="18" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -7670,26 +7728,26 @@
       <c r="AH18"/>
     </row>
     <row r="19" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -7715,23 +7773,23 @@
     </row>
     <row r="20" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="B20" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="F20" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -7757,23 +7815,23 @@
     </row>
     <row r="21" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="F21" t="s">
-        <v>904</v>
+      <c r="F21" s="22" t="s">
+        <v>938</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -7799,23 +7857,23 @@
     </row>
     <row r="22" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="D22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
@@ -7840,26 +7898,26 @@
       <c r="AH22"/>
     </row>
     <row r="23" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>924</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
-        <v>911</v>
+      <c r="E23" s="16"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="16" t="s">
+        <v>907</v>
       </c>
       <c r="H23" t="s">
-        <v>912</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+        <v>908</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -7885,23 +7943,23 @@
     </row>
     <row r="24" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -7926,18 +7984,18 @@
       <c r="AH24"/>
     </row>
     <row r="25" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
@@ -7962,24 +8020,24 @@
       <c r="AH25"/>
     </row>
     <row r="26" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" t="s">
         <v>877</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -8008,20 +8066,20 @@
       <c r="B27" t="s">
         <v>878</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>95</v>
       </c>
       <c r="E27"/>
-      <c r="F27"/>
+      <c r="F27" s="22"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -8047,23 +8105,23 @@
     </row>
     <row r="28" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>879</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>75</v>
       </c>
       <c r="E28"/>
-      <c r="F28"/>
+      <c r="F28" s="22"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -8088,26 +8146,26 @@
       <c r="AH28"/>
     </row>
     <row r="29" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>926</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E29"/>
-      <c r="F29"/>
+      <c r="F29" s="22"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -8136,8 +8194,8 @@
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30" s="17"/>
-      <c r="F30"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="22"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -8169,21 +8227,21 @@
     </row>
     <row r="31" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>92</v>
       </c>
       <c r="D31"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
@@ -8209,21 +8267,21 @@
     </row>
     <row r="32" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D32"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
@@ -8249,21 +8307,21 @@
     </row>
     <row r="33" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>875</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D33"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -8288,24 +8346,24 @@
       <c r="AH33"/>
     </row>
     <row r="34" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>876</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="D34" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
@@ -8331,21 +8389,21 @@
     </row>
     <row r="35" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="17" t="s">
-        <v>928</v>
+      <c r="B35" s="16" t="s">
+        <v>924</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -8371,19 +8429,19 @@
     </row>
     <row r="36" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
-      <c r="B36" s="17" t="s">
-        <v>929</v>
+      <c r="B36" s="16" t="s">
+        <v>925</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -8408,67 +8466,62 @@
       <c r="AH36"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="17" t="s">
-        <v>930</v>
+      <c r="B37" s="16" t="s">
+        <v>926</v>
       </c>
       <c r="D37"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
-        <v>931</v>
+      <c r="B38" s="16" t="s">
+        <v>927</v>
       </c>
       <c r="D38"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
       <c r="K38"/>
-      <c r="L38" s="17"/>
+      <c r="L38" s="16"/>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>872</v>
       </c>
       <c r="D39"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>873</v>
       </c>
       <c r="D40"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="16"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
       <c r="I41"/>
       <c r="K41"/>
     </row>
@@ -16324,4542 +16377,4542 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A485" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G421" sqref="G421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21" style="9" customWidth="1"/>
-    <col min="6" max="6" width="65.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="36" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.83203125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="9" customWidth="1"/>
-    <col min="13" max="13" width="39.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="14.5" style="9"/>
+    <col min="1" max="1" width="70.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21" style="8" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="36" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="39.5" style="8" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="14.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>900</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>909</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="J1" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="J9" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>938</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="J20" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="9" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="E31" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="B32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>858</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="9" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="B42" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>861</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="G42" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="G43" s="8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="G44" s="8" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="G45" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="G50" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="G51" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="9" t="s">
+      <c r="D53" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="M57" s="18"/>
+      <c r="M57" s="17"/>
     </row>
     <row r="58" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="M58" s="18"/>
+      <c r="M58" s="17"/>
     </row>
     <row r="59" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="M59" s="18"/>
+      <c r="M59" s="17"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="M60" s="18"/>
+      <c r="M60" s="17"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="M61" s="18"/>
+      <c r="M61" s="17"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="M62" s="19"/>
+      <c r="M62" s="18"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="M63" s="18"/>
+      <c r="M63" s="17"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="19" t="s">
         <v>890</v>
       </c>
-      <c r="M64" s="18"/>
+      <c r="M64" s="17"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="M65" s="18"/>
+      <c r="M65" s="17"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G89" s="9" t="s">
+      <c r="D89" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" s="9" t="s">
+      <c r="D90" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G91" s="9" t="s">
+      <c r="D91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G92" s="9" t="s">
+      <c r="D92" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" s="9" t="s">
+      <c r="D93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" s="9" t="s">
+      <c r="D94" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G95" s="9" t="s">
+      <c r="D95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G96" s="9" t="s">
+      <c r="D96" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G97" s="9" t="s">
+      <c r="D97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G98" s="9" t="s">
+      <c r="D98" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" s="9" t="s">
+      <c r="D99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G100" s="9" t="s">
+      <c r="D100" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G100" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G101" s="9" t="s">
+      <c r="D101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G102" s="9" t="s">
+      <c r="D102" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G103" s="9" t="s">
+      <c r="D103" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G104" s="9" t="s">
+      <c r="D104" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G104" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G105" s="9" t="s">
+      <c r="D105" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G106" s="9" t="s">
+      <c r="D106" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G107" s="9" t="s">
+      <c r="D107" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G108" s="9" t="s">
+      <c r="D108" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G109" s="9" t="s">
+      <c r="D109" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" s="9" t="s">
+      <c r="D110" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G111" s="9" t="s">
+      <c r="D111" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G112" s="9" t="s">
+      <c r="D112" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G113" s="9" t="s">
+      <c r="D113" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G114" s="9" t="s">
+      <c r="D114" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G115" s="9" t="s">
+      <c r="D115" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G116" s="9" t="s">
+      <c r="D116" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G117" s="9" t="s">
+      <c r="D117" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G118" s="9" t="s">
+      <c r="D118" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G118" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G119" s="9" t="s">
+      <c r="D119" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G119" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G120" s="9" t="s">
+      <c r="D120" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G120" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G121" s="9" t="s">
+      <c r="D121" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G121" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G122" s="9" t="s">
+      <c r="D122" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G122" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G123" s="9" t="s">
+      <c r="D123" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G123" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G124" s="9" t="s">
+      <c r="D124" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="D125" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G125" s="9" t="s">
+      <c r="D125" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G126" s="9" t="s">
+      <c r="D126" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G126" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G127" s="9" t="s">
+      <c r="D127" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G128" s="9" t="s">
+      <c r="D128" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G129" s="9" t="s">
+      <c r="D129" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G129" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G130" s="9" t="s">
+      <c r="D130" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G131" s="9" t="s">
+      <c r="D131" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G131" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G132" s="9" t="s">
+      <c r="D132" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G132" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G133" s="9" t="s">
+      <c r="D133" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G134" s="9" t="s">
+      <c r="D134" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G135" s="9" t="s">
+      <c r="D135" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G136" s="9" t="s">
+      <c r="D136" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G137" s="9" t="s">
+      <c r="D137" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D138" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G138" s="9" t="s">
+      <c r="D138" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G139" s="9" t="s">
+      <c r="D139" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G139" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G140" s="9" t="s">
+      <c r="D140" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G140" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G141" s="9" t="s">
+      <c r="D141" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D142" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G142" s="9" t="s">
+      <c r="D142" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G143" s="9" t="s">
+      <c r="D143" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G144" s="9" t="s">
+      <c r="D144" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G144" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="D145" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G145" s="9" t="s">
+      <c r="D145" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D146" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G146" s="9" t="s">
+      <c r="D146" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G146" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="D147" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G147" s="9" t="s">
+      <c r="D147" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="D148" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G148" s="9" t="s">
+      <c r="D148" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G148" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G149" s="9" t="s">
+      <c r="D149" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G149" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G150" s="9" t="s">
+      <c r="D150" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G150" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G151" s="9" t="s">
+      <c r="D151" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G151" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="D152" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G152" s="9" t="s">
+      <c r="D152" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G152" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="D153" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G153" s="9" t="s">
+      <c r="D153" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G153" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G154" s="9" t="s">
+      <c r="D154" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G154" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="D155" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G155" s="9" t="s">
+      <c r="D155" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G155" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G156" s="9" t="s">
+      <c r="D156" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G156" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G157" s="9" t="s">
+      <c r="D157" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G157" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G158" s="9" t="s">
+      <c r="D158" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G158" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="D159" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G159" s="9" t="s">
+      <c r="D159" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G159" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D160" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G160" s="9" t="s">
+      <c r="D160" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G161" s="9" t="s">
+      <c r="D161" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G161" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G162" s="9" t="s">
+      <c r="D162" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G162" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D163" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G163" s="9" t="s">
+      <c r="D163" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G163" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G164" s="9" t="s">
+      <c r="D164" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G164" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="D165" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G165" s="9" t="s">
+      <c r="D165" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G165" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D166" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G166" s="9" t="s">
+      <c r="D166" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G166" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G167" s="9" t="s">
+      <c r="D167" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G167" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="D168" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G168" s="9" t="s">
+      <c r="D168" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G168" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G169" s="9" t="s">
+      <c r="D169" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G169" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="D170" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G170" s="9" t="s">
+      <c r="D170" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G170" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="D171" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G171" s="9" t="s">
+      <c r="D171" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G171" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G172" s="9" t="s">
+      <c r="D172" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G172" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G173" s="9" t="s">
+      <c r="D173" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G173" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G174" s="9" t="s">
+      <c r="D174" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G174" s="8" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="D175" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G175" s="9" t="s">
+      <c r="D175" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G175" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="D176" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G176" s="9" t="s">
+      <c r="D176" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G176" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="D177" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G177" s="9" t="s">
+      <c r="D177" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G177" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="D178" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G178" s="9" t="s">
+      <c r="D178" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G178" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G179" s="9" t="s">
+      <c r="D179" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G179" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G180" s="9" t="s">
+      <c r="D180" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G180" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G181" s="9" t="s">
+      <c r="D181" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G181" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G182" s="9" t="s">
+      <c r="D182" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G182" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="D183" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G183" s="9" t="s">
+      <c r="D183" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G183" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="D184" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G184" s="9" t="s">
+      <c r="D184" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G184" s="8" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D185" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G185" s="9" t="s">
+      <c r="D185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G185" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="D186" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G186" s="9" t="s">
+      <c r="D186" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G186" s="8" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="D187" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G187" s="9" t="s">
+      <c r="D187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G187" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="D188" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G188" s="9" t="s">
+      <c r="D188" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G188" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="D189" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G189" s="9" t="s">
+      <c r="D189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G189" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="D190" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G190" s="9" t="s">
+      <c r="D190" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G190" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="G191" s="9" t="s">
+      <c r="G191" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="G192" s="9" t="s">
+      <c r="G192" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="G193" s="9" t="s">
+      <c r="G193" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="G194" s="9" t="s">
+      <c r="G194" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="G195" s="9" t="s">
+      <c r="G195" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="G196" s="9" t="s">
+      <c r="G196" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="G197" s="9" t="s">
+      <c r="G197" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="G198" s="9" t="s">
+      <c r="G198" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="G199" s="9" t="s">
+      <c r="G199" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="G200" s="9" t="s">
+      <c r="G200" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="G201" s="9" t="s">
+      <c r="G201" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="D202" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G202" s="9" t="s">
+      <c r="D202" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G202" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="D203" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G203" s="9" t="s">
+      <c r="D203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G203" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="D204" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G204" s="9" t="s">
+      <c r="D204" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G204" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="D205" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G205" s="9" t="s">
+      <c r="D205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G205" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="D206" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G206" s="9" t="s">
+      <c r="D206" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G206" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="D207" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G207" s="9" t="s">
+      <c r="D207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G207" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="D208" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G208" s="9" t="s">
+      <c r="D208" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G208" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="D209" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G209" s="9" t="s">
+      <c r="D209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G209" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="D210" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G210" s="9" t="s">
+      <c r="D210" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G210" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="D211" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G211" s="9" t="s">
+      <c r="D211" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G211" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="D212" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G212" s="9" t="s">
+      <c r="D212" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G212" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="D213" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G213" s="9" t="s">
+      <c r="D213" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G213" s="8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="D214" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G214" s="9" t="s">
+      <c r="D214" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G214" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="D215" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G215" s="9" t="s">
+      <c r="D215" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G215" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G216" s="9" t="s">
+      <c r="D216" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G216" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="D217" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G217" s="9" t="s">
+      <c r="D217" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G217" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="D218" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G218" s="9" t="s">
+      <c r="D218" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G218" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="D219" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G219" s="9" t="s">
+      <c r="D219" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G219" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="D220" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G220" s="9" t="s">
+      <c r="D220" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G220" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="D221" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G221" s="9" t="s">
+      <c r="D221" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G221" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="D222" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G222" s="9" t="s">
+      <c r="D222" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G222" s="8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="D223" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G223" s="9" t="s">
+      <c r="D223" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G223" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="D224" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G224" s="9" t="s">
+      <c r="D224" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G224" s="8" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="D225" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G225" s="9" t="s">
+      <c r="D225" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G225" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="D226" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G226" s="9" t="s">
+      <c r="D226" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G226" s="8" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="D227" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G227" s="9" t="s">
+      <c r="D227" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G227" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="D228" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G228" s="9" t="s">
+      <c r="D228" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G228" s="8" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="D229" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G229" s="9" t="s">
+      <c r="D229" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G229" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="D230" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G230" s="9" t="s">
+      <c r="D230" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G230" s="8" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="D231" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G231" s="9" t="s">
+      <c r="D231" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G231" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="D232" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G232" s="9" t="s">
+      <c r="D232" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G232" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="D233" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G233" s="9" t="s">
+      <c r="D233" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G233" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="D234" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G234" s="9" t="s">
+      <c r="D234" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G234" s="8" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="D235" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G235" s="9" t="s">
+      <c r="D235" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G235" s="8" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="D236" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G236" s="9" t="s">
+      <c r="D236" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G236" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G237" s="9" t="s">
+      <c r="D237" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G237" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="D238" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G238" s="9" t="s">
+      <c r="D238" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G238" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="D239" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G239" s="9" t="s">
+      <c r="D239" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G239" s="8" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="D240" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G240" s="9" t="s">
+      <c r="D240" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G240" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="D241" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G241" s="9" t="s">
+      <c r="D241" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G241" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="D242" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G242" s="9" t="s">
+      <c r="D242" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G242" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="243" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="D243" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G243" s="9" t="s">
+      <c r="D243" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G243" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="244" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="D244" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G244" s="9" t="s">
+      <c r="D244" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G244" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="245" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="D245" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G245" s="9" t="s">
+      <c r="D245" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G245" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="246" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="D246" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G246" s="9" t="s">
+      <c r="D246" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G246" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="247" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="D247" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G247" s="9" t="s">
+      <c r="D247" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G247" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="248" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="D248" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G248" s="9" t="s">
+      <c r="D248" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G248" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="249" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="D249" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G249" s="9" t="s">
+      <c r="D249" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G249" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="250" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G250" s="9" t="s">
+      <c r="D250" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G250" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="251" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="D251" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G251" s="9" t="s">
+      <c r="D251" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G251" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="252" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="D252" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G252" s="9" t="s">
+      <c r="D252" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G252" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="253" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="D253" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G253" s="9" t="s">
+      <c r="D253" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G253" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="254" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="D254" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G254" s="9" t="s">
+      <c r="D254" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G254" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="255" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="D255" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G255" s="9" t="s">
+      <c r="D255" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G255" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="256" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="D256" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G256" s="9" t="s">
+      <c r="D256" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G256" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="257" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="D257" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G257" s="9" t="s">
+      <c r="D257" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G257" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="258" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="D258" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G258" s="9" t="s">
+      <c r="D258" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G258" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="259" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="D259" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G259" s="9" t="s">
+      <c r="D259" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G259" s="8" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="260" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="D260" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G260" s="9" t="s">
+      <c r="D260" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G260" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="261" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="D261" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G261" s="9" t="s">
+      <c r="D261" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G261" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="262" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="9" t="s">
+      <c r="B262" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="D262" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G262" s="9" t="s">
+      <c r="D262" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G262" s="8" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="263" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="D263" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G263" s="9" t="s">
+      <c r="D263" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G263" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="264" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="D264" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G264" s="9" t="s">
+      <c r="D264" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G264" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="265" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="D265" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G265" s="9" t="s">
+      <c r="D265" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G265" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="266" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="D266" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G266" s="9" t="s">
+      <c r="D266" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G266" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="267" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="D267" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G267" s="9" t="s">
+      <c r="D267" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G267" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="268" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="D268" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G268" s="9" t="s">
+      <c r="D268" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G268" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="269" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="D269" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G269" s="9" t="s">
+      <c r="D269" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G269" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="270" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="D270" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G270" s="9" t="s">
+      <c r="D270" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G270" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="271" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D271" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G271" s="9" t="s">
+      <c r="D271" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G271" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="272" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="D272" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G272" s="9" t="s">
+      <c r="D272" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G272" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="273" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="9" t="s">
+      <c r="B273" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="D273" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G273" s="9" t="s">
+      <c r="D273" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G273" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="274" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D274" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G274" s="9" t="s">
+      <c r="D274" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G274" s="8" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="275" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="D275" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G275" s="9" t="s">
+      <c r="D275" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G275" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="276" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D276" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G276" s="9" t="s">
+      <c r="D276" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G276" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="277" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="D277" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G277" s="9" t="s">
+      <c r="D277" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G277" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="278" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="D278" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G278" s="9" t="s">
+      <c r="D278" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G278" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="279" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="9" t="s">
+      <c r="B279" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D279" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G279" s="9" t="s">
+      <c r="D279" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G279" s="8" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="280" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="9" t="s">
+      <c r="B280" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="D280" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G280" s="9" t="s">
+      <c r="D280" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G280" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="281" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D281" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G281" s="9" t="s">
+      <c r="D281" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G281" s="8" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="282" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="9" t="s">
+      <c r="B282" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="D282" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G282" s="9" t="s">
+      <c r="D282" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G282" s="8" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="283" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="D283" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G283" s="9" t="s">
+      <c r="D283" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G283" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="284" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="D284" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G284" s="9" t="s">
+      <c r="D284" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G284" s="8" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="285" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="D285" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G285" s="9" t="s">
+      <c r="D285" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G285" s="8" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="286" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="D286" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G286" s="9" t="s">
+      <c r="D286" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G286" s="8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="287" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D287" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G287" s="9" t="s">
+      <c r="D287" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G287" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="288" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="9" t="s">
+      <c r="B288" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="D288" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G288" s="9" t="s">
+      <c r="D288" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G288" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="289" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="9" t="s">
+      <c r="B289" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="D289" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G289" s="9" t="s">
+      <c r="D289" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G289" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="290" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="D290" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G290" s="9" t="s">
+      <c r="D290" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G290" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="291" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="D291" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G291" s="9" t="s">
+      <c r="D291" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G291" s="8" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="292" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="D292" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G292" s="9" t="s">
+      <c r="D292" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G292" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="293" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="D293" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G293" s="9" t="s">
+      <c r="D293" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G293" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="294" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="9" t="s">
+      <c r="B294" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="D294" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G294" s="9" t="s">
+      <c r="D294" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G294" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="295" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="9" t="s">
+      <c r="B295" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="D295" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G295" s="9" t="s">
+      <c r="D295" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G295" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="296" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="9" t="s">
+      <c r="B296" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="D296" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G296" s="9" t="s">
+      <c r="D296" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G296" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="297" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="D297" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G297" s="9" t="s">
+      <c r="D297" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G297" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="298" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="D298" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G298" s="9" t="s">
+      <c r="D298" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G298" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="299" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="D299" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G299" s="9" t="s">
+      <c r="D299" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G299" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="300" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="9" t="s">
+      <c r="B300" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="D300" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G300" s="9" t="s">
+      <c r="D300" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G300" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="301" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="D301" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G301" s="9" t="s">
+      <c r="D301" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G301" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="302" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="D302" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G302" s="9" t="s">
+      <c r="D302" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G302" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="303" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="D303" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G303" s="9" t="s">
+      <c r="D303" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G303" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="304" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="D304" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G304" s="9" t="s">
+      <c r="D304" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G304" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="305" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="D305" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G305" s="9" t="s">
+      <c r="D305" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G305" s="8" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="306" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="D306" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G306" s="9" t="s">
+      <c r="D306" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G306" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="307" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="D307" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G307" s="9" t="s">
+      <c r="D307" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G307" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="308" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="9" t="s">
+      <c r="B308" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="D308" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G308" s="9" t="s">
+      <c r="D308" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G308" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="309" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="D309" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G309" s="9" t="s">
+      <c r="D309" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G309" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="310" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="D310" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G310" s="9" t="s">
+      <c r="D310" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G310" s="8" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="311" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="9" t="s">
+      <c r="B311" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="D311" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G311" s="9" t="s">
+      <c r="D311" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G311" s="8" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="312" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="9" t="s">
+      <c r="B312" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="D312" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G312" s="9" t="s">
+      <c r="D312" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G312" s="8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="313" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="D313" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G313" s="9" t="s">
+      <c r="D313" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G313" s="8" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="314" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="9" t="s">
+      <c r="B314" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="D314" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G314" s="9" t="s">
+      <c r="D314" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G314" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="315" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="D315" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G315" s="9" t="s">
+      <c r="D315" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G315" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="316" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="D316" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G316" s="9" t="s">
+      <c r="D316" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G316" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="317" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="9" t="s">
+      <c r="B317" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="D317" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G317" s="9" t="s">
+      <c r="D317" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G317" s="8" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="318" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="D318" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G318" s="9" t="s">
+      <c r="D318" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G318" s="8" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="319" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="9" t="s">
+      <c r="B319" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="D319" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G319" s="9" t="s">
+      <c r="D319" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G319" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="320" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="9" t="s">
+      <c r="B320" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D320" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G320" s="9" t="s">
+      <c r="D320" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G320" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="321" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="D321" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G321" s="9" t="s">
+      <c r="D321" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G321" s="8" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="322" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D322" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G322" s="9" t="s">
+      <c r="D322" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G322" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="323" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="9" t="s">
+      <c r="B323" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="D323" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G323" s="9" t="s">
+      <c r="D323" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G323" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="324" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D324" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G324" s="9" t="s">
+      <c r="D324" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G324" s="8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="325" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="D325" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G325" s="9" t="s">
+      <c r="D325" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G325" s="8" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="326" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="9" t="s">
+      <c r="B326" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D326" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G326" s="9" t="s">
+      <c r="D326" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G326" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="327" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="9" t="s">
+      <c r="B327" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="D327" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G327" s="9" t="s">
+      <c r="D327" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G327" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="328" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D328" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G328" s="9" t="s">
+      <c r="D328" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G328" s="8" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="329" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="D329" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G329" s="9" t="s">
+      <c r="D329" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G329" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="330" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D330" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G330" s="9" t="s">
+      <c r="D330" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G330" s="8" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="331" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="D331" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G331" s="9" t="s">
+      <c r="D331" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G331" s="8" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="332" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="9" t="s">
+      <c r="B332" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D332" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G332" s="9" t="s">
+      <c r="D332" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G332" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="333" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="9" t="s">
+      <c r="B333" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="D333" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G333" s="9" t="s">
+      <c r="D333" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G333" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="334" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="9" t="s">
+      <c r="B334" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D334" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G334" s="9" t="s">
+      <c r="D334" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G334" s="8" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="335" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="9" t="s">
+      <c r="B335" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="D335" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G335" s="9" t="s">
+      <c r="D335" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G335" s="8" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="336" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D336" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G336" s="9" t="s">
+      <c r="D336" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G336" s="8" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="337" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="9" t="s">
+      <c r="B337" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="D337" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G337" s="9" t="s">
+      <c r="D337" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G337" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="338" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="9" t="s">
+      <c r="B338" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D338" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G338" s="9" t="s">
+      <c r="D338" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G338" s="8" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="339" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="D339" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G339" s="9" t="s">
+      <c r="D339" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G339" s="8" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="340" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D340" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G340" s="9" t="s">
+      <c r="D340" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G340" s="8" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="341" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="D341" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G341" s="9" t="s">
+      <c r="D341" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G341" s="8" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="342" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D342" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G342" s="9" t="s">
+      <c r="D342" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G342" s="8" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="343" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="9" t="s">
+      <c r="B343" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="D343" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G343" s="9" t="s">
+      <c r="D343" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G343" s="8" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="344" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D344" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G344" s="9" t="s">
+      <c r="D344" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G344" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="345" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D345" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G345" s="9" t="s">
+      <c r="D345" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G345" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="346" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="D346" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G346" s="9" t="s">
+      <c r="D346" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G346" s="8" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="347" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="9" t="s">
+      <c r="B347" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D347" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G347" s="9" t="s">
+      <c r="D347" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G347" s="8" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="348" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="9" t="s">
+      <c r="B348" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="D348" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G348" s="9" t="s">
+      <c r="D348" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G348" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="349" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="9" t="s">
+      <c r="B349" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D349" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G349" s="9" t="s">
+      <c r="D349" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G349" s="8" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="350" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="9" t="s">
+      <c r="B350" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="D350" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G350" s="9" t="s">
+      <c r="D350" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G350" s="8" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="351" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="9" t="s">
+      <c r="B351" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D351" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G351" s="9" t="s">
+      <c r="D351" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G351" s="8" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="352" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="D352" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G352" s="9" t="s">
+      <c r="D352" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G352" s="8" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="353" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D353" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G353" s="9" t="s">
+      <c r="D353" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G353" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="354" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="9" t="s">
+      <c r="B354" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="D354" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G354" s="9" t="s">
+      <c r="D354" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G354" s="8" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="355" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="9" t="s">
+      <c r="B355" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D355" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G355" s="9" t="s">
+      <c r="D355" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G355" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="356" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="D356" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G356" s="9" t="s">
+      <c r="D356" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G356" s="8" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="357" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D357" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G357" s="9" t="s">
+      <c r="D357" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G357" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="358" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="D358" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G358" s="9" t="s">
+      <c r="D358" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G358" s="8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="359" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="D359" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G359" s="9" t="s">
+      <c r="D359" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G359" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="360" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="D360" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G360" s="9" t="s">
+      <c r="D360" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G360" s="8" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="361" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="D361" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G361" s="9" t="s">
+      <c r="D361" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G361" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="362" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="D362" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G362" s="9" t="s">
+      <c r="D362" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G362" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="363" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="9" t="s">
+      <c r="B363" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="D363" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G363" s="9" t="s">
+      <c r="D363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G363" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="364" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="D364" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G364" s="9" t="s">
+      <c r="D364" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G364" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="365" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="D365" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G365" s="9" t="s">
+      <c r="D365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G365" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="366" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="9" t="s">
+      <c r="B366" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="D366" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G366" s="9" t="s">
+      <c r="D366" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G366" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="367" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="9" t="s">
+      <c r="B367" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="D367" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G367" s="9" t="s">
+      <c r="D367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G367" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="368" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="9" t="s">
+      <c r="B368" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="D368" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G368" s="9" t="s">
+      <c r="D368" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G368" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="369" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="9" t="s">
+      <c r="B369" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="D369" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G369" s="9" t="s">
+      <c r="D369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G369" s="8" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="370" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="D370" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G370" s="9" t="s">
+      <c r="D370" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G370" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="371" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="D371" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G371" s="9" t="s">
+      <c r="D371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G371" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="372" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="9" t="s">
+      <c r="B372" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="D372" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G372" s="9" t="s">
+      <c r="D372" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G372" s="8" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="373" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="D373" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G373" s="9" t="s">
+      <c r="D373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G373" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="374" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="D374" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G374" s="9" t="s">
+      <c r="D374" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G374" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="375" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="D375" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G375" s="9" t="s">
+      <c r="D375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G375" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="376" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="D376" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G376" s="9" t="s">
+      <c r="D376" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G376" s="8" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="377" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="9" t="s">
+      <c r="B377" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="D377" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G377" s="9" t="s">
+      <c r="D377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G377" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="378" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="D378" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G378" s="9" t="s">
+      <c r="D378" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G378" s="8" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="379" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="D379" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G379" s="9" t="s">
+      <c r="D379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G379" s="8" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="380" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="D380" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G380" s="9" t="s">
+      <c r="D380" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G380" s="8" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="381" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="D381" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G381" s="9" t="s">
+      <c r="D381" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G381" s="8" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="382" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B382" s="9" t="s">
+      <c r="B382" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="D382" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G382" s="9" t="s">
+      <c r="D382" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G382" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="383" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="9" t="s">
+      <c r="B383" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="D383" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G383" s="9" t="s">
+      <c r="D383" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G383" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="384" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="D384" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G384" s="9" t="s">
+      <c r="D384" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G384" s="8" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="385" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="D385" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G385" s="9" t="s">
+      <c r="D385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G385" s="8" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="386" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B386" s="9" t="s">
+      <c r="B386" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="D386" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G386" s="9" t="s">
+      <c r="D386" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G386" s="8" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="387" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="D387" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G387" s="9" t="s">
+      <c r="D387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G387" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="388" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="D388" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G388" s="9" t="s">
+      <c r="D388" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G388" s="8" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="389" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="9" t="s">
+      <c r="B389" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="D389" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G389" s="9" t="s">
+      <c r="D389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G389" s="8" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="390" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="9" t="s">
+      <c r="B390" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="D390" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G390" s="9" t="s">
+      <c r="D390" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G390" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="391" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="9" t="s">
+      <c r="B391" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D391" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G391" s="9" t="s">
+      <c r="D391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G391" s="8" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="392" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="D392" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G392" s="9" t="s">
+      <c r="D392" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G392" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="393" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D393" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G393" s="9" t="s">
+      <c r="D393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G393" s="8" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="394" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="9" t="s">
+      <c r="B394" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="D394" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G394" s="9" t="s">
+      <c r="D394" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G394" s="8" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="395" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D395" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G395" s="9" t="s">
+      <c r="D395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G395" s="8" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="396" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="D396" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G396" s="9" t="s">
+      <c r="D396" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G396" s="8" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="397" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D397" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G397" s="9" t="s">
+      <c r="D397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G397" s="8" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="398" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="D398" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G398" s="9" t="s">
+      <c r="D398" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G398" s="8" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="399" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="9" t="s">
+      <c r="B399" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D399" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G399" s="9" t="s">
+      <c r="D399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G399" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="400" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="D400" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G400" s="9" t="s">
+      <c r="D400" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G400" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="401" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B401" s="9" t="s">
+      <c r="B401" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D401" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G401" s="9" t="s">
+      <c r="D401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G401" s="8" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="402" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="D402" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G402" s="9" t="s">
+      <c r="D402" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G402" s="8" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="403" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D403" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G403" s="9" t="s">
+      <c r="D403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G403" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="404" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="D404" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G404" s="9" t="s">
+      <c r="D404" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G404" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="405" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="9" t="s">
+      <c r="B405" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D405" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G405" s="9" t="s">
+      <c r="D405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G405" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="406" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="9" t="s">
+      <c r="B406" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="D406" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G406" s="9" t="s">
+      <c r="D406" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G406" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="407" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="D407" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G407" s="9" t="s">
+      <c r="D407" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G407" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="408" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="9" t="s">
+      <c r="B408" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D408" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G408" s="9" t="s">
+      <c r="D408" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G408" s="8" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="409" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="D409" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G409" s="9" t="s">
+      <c r="D409" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G409" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="410" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="D410" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G410" s="9" t="s">
+      <c r="D410" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G410" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="411" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="9" t="s">
+      <c r="B411" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="D411" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G411" s="9" t="s">
+      <c r="D411" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G411" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="412" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="9" t="s">
+      <c r="B412" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="D412" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G412" s="9" t="s">
+      <c r="D412" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G412" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="413" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" s="9" t="s">
+      <c r="B413" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="D413" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G413" s="9" t="s">
+      <c r="D413" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G413" s="8" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="414" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="D414" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G414" s="9" t="s">
+      <c r="D414" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G414" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="415" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="D415" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G415" s="9" t="s">
+      <c r="D415" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G415" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="416" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D416" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G416" s="9" t="s">
+      <c r="D416" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G416" s="8" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="417" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="9" t="s">
+      <c r="B417" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D417" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G417" s="9" t="s">
+      <c r="D417" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G417" s="8" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="418" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="D418" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G418" s="9" t="s">
+      <c r="D418" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G418" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="419" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="D419" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G419" s="9" t="s">
+      <c r="D419" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G419" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="420" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="D420" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G420" s="9" t="s">
+      <c r="D420" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G420" s="8" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="421" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="D421" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G421" s="9" t="s">
+      <c r="D421" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G421" s="8" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="422" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="D422" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G422" s="9" t="s">
+      <c r="D422" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G422" s="8" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="423" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B423" s="9" t="s">
+      <c r="B423" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="D423" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G423" s="9" t="s">
+      <c r="D423" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G423" s="8" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="424" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="9" t="s">
+      <c r="B424" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="D424" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G424" s="9" t="s">
+      <c r="D424" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G424" s="8" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="425" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B425" s="9" t="s">
+      <c r="B425" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="D425" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G425" s="9" t="s">
+      <c r="D425" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G425" s="8" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="426" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="D426" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G426" s="9" t="s">
+      <c r="D426" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G426" s="8" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="427" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="D427" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G427" s="9" t="s">
+      <c r="D427" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G427" s="8" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="428" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="D428" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G428" s="9" t="s">
+      <c r="D428" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G428" s="8" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="429" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="D429" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G429" s="9" t="s">
+      <c r="D429" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G429" s="8" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="430" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="D430" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G430" s="9" t="s">
+      <c r="D430" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G430" s="8" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="431" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="D431" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G431" s="9" t="s">
+      <c r="D431" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G431" s="8" t="s">
         <v>484</v>
       </c>
     </row>
@@ -20891,10 +20944,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandre.routier/Projects/Git/clinica_t1_linear/clinica/iotools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elina.thibeausutre/Documents/code/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30152F-6A89-224E-98FF-4894B6AC576A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
     <sheet name="sessions.tsv" sheetId="2" r:id="rId2"/>
     <sheet name="scans.tsv" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,19 +29,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">It is exactly ? or does it include non alphanumeric characters ?
 </t>
@@ -52,7 +50,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Olivier Colliot</t>
         </r>
@@ -63,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="948">
   <si>
     <t>Field</t>
   </si>
@@ -107,9 +104,6 @@
     <t>current_study</t>
   </si>
   <si>
-    <t>FDG</t>
-  </si>
-  <si>
     <t>adni_fdg</t>
   </si>
   <si>
@@ -305,9 +299,6 @@
     <t>YYYY-MM-DD HH:MM:SS</t>
   </si>
   <si>
-    <t>Date of PET acquisition</t>
-  </si>
-  <si>
     <t>Modalities related</t>
   </si>
   <si>
@@ -2880,13 +2871,46 @@
   </si>
   <si>
     <t>aibl_apoeres_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_pibmeta_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_mri3meta_*.csv</t>
+  </si>
+  <si>
+    <t>Date of PiB PET acquisition</t>
+  </si>
+  <si>
+    <t>Date of AV45 PET acquisition</t>
+  </si>
+  <si>
+    <t>aibl_av45meta_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_mrimeta_*.csv</t>
+  </si>
+  <si>
+    <t>AV45</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>FLUTE</t>
+  </si>
+  <si>
+    <t>Date of FLUTE PET acquisition</t>
+  </si>
+  <si>
+    <t>aibl_flutemeta_*.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2896,68 +2920,80 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF343637"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2965,42 +3001,50 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3017,12 +3061,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3060,8 +3098,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3146,61 +3190,67 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="55">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+  <cellStyles count="61">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3236,7 +3286,7 @@
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3343,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3400,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +3457,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3514,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3521,7 +3571,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,7 +3628,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3685,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3692,7 +3742,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3749,7 +3799,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3856,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3863,7 +3913,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3920,7 +3970,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3977,7 +4027,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4034,7 +4084,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4091,7 +4141,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4148,7 +4198,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4205,7 +4255,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4312,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4319,7 +4369,7 @@
         <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4376,7 +4426,7 @@
         <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4433,7 +4483,7 @@
         <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,7 +4540,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4547,7 +4597,7 @@
         <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4654,7 @@
         <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4661,7 +4711,7 @@
         <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4718,7 +4768,7 @@
         <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,7 +4825,7 @@
         <xdr:cNvPr id="28" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,7 +4882,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4894,7 +4944,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4956,7 +5006,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,7 +5068,7 @@
         <xdr:cNvPr id="1024" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000000040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5080,7 +5130,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5192,7 @@
         <xdr:cNvPr id="1027" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5204,7 +5254,7 @@
         <xdr:cNvPr id="1028" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5316,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5328,7 +5378,7 @@
         <xdr:cNvPr id="1030" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5390,7 +5440,7 @@
         <xdr:cNvPr id="1031" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5452,7 +5502,7 @@
         <xdr:cNvPr id="1032" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5514,7 +5564,7 @@
         <xdr:cNvPr id="1033" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5576,7 +5626,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5638,7 +5688,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,7 +5750,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5762,7 +5812,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5824,7 +5874,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5886,7 +5936,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5948,7 +5998,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6010,7 +6060,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6072,7 +6122,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6134,7 +6184,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6196,7 +6246,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6258,7 +6308,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6320,7 +6370,7 @@
         <xdr:cNvPr id="44" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6382,7 +6432,7 @@
         <xdr:cNvPr id="45" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6444,7 +6494,7 @@
         <xdr:cNvPr id="46" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6506,7 +6556,7 @@
         <xdr:cNvPr id="47" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6610,7 @@
         <xdr:cNvPr id="48" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6614,7 +6664,7 @@
         <xdr:cNvPr id="49" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6647,6 +6697,62 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6915,10 +7021,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -6943,25 +7049,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
@@ -6971,16 +7077,16 @@
     </row>
     <row r="2" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="22"/>
@@ -7015,26 +7121,26 @@
     </row>
     <row r="3" spans="1:34" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -7065,14 +7171,14 @@
     </row>
     <row r="4" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="22"/>
@@ -7107,14 +7213,14 @@
     </row>
     <row r="5" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="22"/>
@@ -7149,16 +7255,16 @@
     </row>
     <row r="6" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="22"/>
@@ -7193,22 +7299,22 @@
     </row>
     <row r="7" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -7241,28 +7347,28 @@
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -7293,24 +7399,24 @@
     </row>
     <row r="9" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="22"/>
       <c r="G9" s="16" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -7341,13 +7447,13 @@
     </row>
     <row r="10" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -7383,24 +7489,24 @@
     </row>
     <row r="11" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="C11" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="22"/>
       <c r="G11" s="16" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -7431,16 +7537,16 @@
     </row>
     <row r="12" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="22"/>
@@ -7476,7 +7582,7 @@
     <row r="13" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="16" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -7513,22 +7619,22 @@
     </row>
     <row r="14" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -7562,7 +7668,7 @@
     <row r="15" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -7600,17 +7706,17 @@
     <row r="16" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="22"/>
       <c r="G16" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -7641,24 +7747,24 @@
     </row>
     <row r="17" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="C17" s="16" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="22"/>
       <c r="G17" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H17" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -7689,10 +7795,10 @@
     </row>
     <row r="18" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7729,16 +7835,16 @@
     </row>
     <row r="19" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="22"/>
@@ -7774,15 +7880,15 @@
     <row r="20" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="16" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -7816,15 +7922,15 @@
     <row r="21" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="16" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -7858,13 +7964,13 @@
     <row r="22" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="22"/>
@@ -7899,20 +8005,20 @@
     </row>
     <row r="23" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="16"/>
       <c r="F23" s="22"/>
       <c r="G23" s="16" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H23" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -7944,13 +8050,13 @@
     <row r="24" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="22"/>
@@ -8022,13 +8128,13 @@
     <row r="26" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="22"/>
@@ -8064,13 +8170,13 @@
     <row r="27" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="22"/>
@@ -8106,13 +8212,13 @@
     <row r="28" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28"/>
       <c r="F28" s="22"/>
@@ -8147,16 +8253,16 @@
     </row>
     <row r="29" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="22"/>
@@ -8228,10 +8334,10 @@
     <row r="31" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="16"/>
@@ -8268,10 +8374,10 @@
     <row r="32" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="16" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="16"/>
@@ -8308,10 +8414,10 @@
     <row r="33" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="16"/>
@@ -8347,14 +8453,14 @@
     </row>
     <row r="34" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="22"/>
@@ -8390,11 +8496,11 @@
     <row r="35" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="16" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="22"/>
@@ -8430,7 +8536,7 @@
     <row r="36" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="16" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -8467,7 +8573,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="16" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="16"/>
@@ -8480,7 +8586,7 @@
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="16"/>
@@ -8493,7 +8599,7 @@
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="16"/>
@@ -8506,7 +8612,7 @@
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="16"/>
@@ -16374,11 +16480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N431"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G421" sqref="G421"/>
     </sheetView>
   </sheetViews>
@@ -16405,34 +16511,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -16449,7 +16555,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -16460,22 +16566,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -16486,13 +16592,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16500,4420 +16606,4420 @@
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M57" s="17"/>
     </row>
     <row r="58" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M58" s="17"/>
     </row>
     <row r="59" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="M59" s="17"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="M60" s="17"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M61" s="17"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="M63" s="17"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M64" s="17"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="M65" s="17"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G234" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G236" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G237" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G238" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G239" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G240" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G241" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G246" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G248" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G249" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="250" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G250" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G257" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G258" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G259" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="260" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G265" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G266" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G268" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="270" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G271" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="273" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="275" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="276" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="277" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="279" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="282" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="283" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G283" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="284" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G284" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="285" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G285" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="286" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G286" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="287" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G287" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="288" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="289" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="290" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G290" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="291" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G291" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="292" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G292" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="293" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="294" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="295" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="296" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G296" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="297" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G297" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="298" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G298" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="299" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="300" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G300" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="301" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G301" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="302" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G302" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="303" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G303" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="304" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G304" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="305" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G305" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="306" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G306" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="307" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G307" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="308" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="309" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G309" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="310" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G310" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="311" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G311" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="312" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="313" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="314" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G314" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="315" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="316" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="317" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="318" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G318" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="319" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="320" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="321" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G321" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="322" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G322" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="323" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G323" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="324" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G324" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="325" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G325" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="326" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G326" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="327" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G327" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="328" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G328" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="329" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G329" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="330" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="331" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G331" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="332" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G332" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="333" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G333" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="334" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G334" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G335" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="336" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G336" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G337" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="338" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G338" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="339" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G339" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="340" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G340" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="341" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G341" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="342" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G342" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="343" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G343" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="344" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G344" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="345" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G345" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="346" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G346" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="347" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G347" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="348" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G348" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="349" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="350" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G350" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="351" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G351" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="352" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G352" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="353" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G353" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="354" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G354" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="355" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G355" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="356" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G356" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="357" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G357" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="358" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G358" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="359" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G359" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="360" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G360" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="361" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G361" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="362" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G362" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="363" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G363" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="364" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G364" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="365" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G365" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="366" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G366" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="367" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G367" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="368" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G368" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="369" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G369" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="370" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G370" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="371" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G371" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G372" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="373" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G373" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="374" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G374" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="375" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G375" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="376" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G376" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="377" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G377" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="378" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G378" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="379" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G379" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="380" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G380" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="381" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G381" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="382" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G382" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="383" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G383" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="384" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D384" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G384" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="385" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D385" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G385" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="386" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D386" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G386" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="387" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D387" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G387" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="388" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G388" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="389" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G389" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="390" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G390" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="391" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G391" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="392" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D392" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G392" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="393" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D393" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G393" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="394" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G394" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G395" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="396" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G396" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="397" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G397" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="398" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D398" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G398" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="399" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D399" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G399" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="400" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D400" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G400" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="401" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D401" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G401" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="402" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D402" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G402" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="403" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G403" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="404" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D404" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G404" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G405" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="406" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G406" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="407" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D407" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G407" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="408" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D408" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G408" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="409" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G409" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="410" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="8" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G410" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="411" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D411" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G411" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="412" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="8" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G412" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="413" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G413" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="414" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G414" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="415" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="8" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D415" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G415" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="416" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D416" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G416" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D417" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G417" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="418" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G418" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="419" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="8" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G419" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G420" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="421" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D421" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G421" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="422" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D422" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G422" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="423" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D423" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G423" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="424" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G424" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="425" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D425" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G425" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="426" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D426" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G426" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="427" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D427" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G427" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="428" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D428" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G428" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="429" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D429" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G429" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="430" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D430" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G430" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="431" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D431" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G431" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -20923,142 +21029,239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="2" max="3" width="23.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>903</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>904</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>870</v>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="949">
   <si>
     <t>Field</t>
   </si>
@@ -2904,6 +2904,9 @@
   </si>
   <si>
     <t>aibl_flutemeta_*.csv</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY</t>
   </si>
 </sst>
 </file>
@@ -3286,7 +3289,7 @@
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3346,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3403,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3460,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3517,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3571,7 +3574,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3628,7 +3631,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3688,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,7 +3745,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3799,7 +3802,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,7 +3859,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,7 +3916,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3970,7 +3973,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4030,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4084,7 +4087,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4141,7 +4144,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4198,7 +4201,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,7 +4258,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,7 +4315,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4372,7 @@
         <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4429,7 @@
         <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4483,7 +4486,7 @@
         <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,7 +4543,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,7 +4600,7 @@
         <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4654,7 +4657,7 @@
         <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4711,7 +4714,7 @@
         <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4768,7 +4771,7 @@
         <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,7 +4828,7 @@
         <xdr:cNvPr id="28" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4885,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4944,7 +4947,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5006,7 +5009,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5071,7 @@
         <xdr:cNvPr id="1024" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000000040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5133,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5192,7 +5195,7 @@
         <xdr:cNvPr id="1027" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,7 +5257,7 @@
         <xdr:cNvPr id="1028" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5319,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5378,7 +5381,7 @@
         <xdr:cNvPr id="1030" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5440,7 +5443,7 @@
         <xdr:cNvPr id="1031" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5505,7 @@
         <xdr:cNvPr id="1032" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5564,7 +5567,7 @@
         <xdr:cNvPr id="1033" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5626,7 +5629,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5688,7 +5691,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5750,7 +5753,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5812,7 +5815,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5874,7 +5877,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5936,7 +5939,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5998,7 +6001,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6060,7 +6063,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6122,7 +6125,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6184,7 +6187,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6246,7 +6249,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,7 +6311,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6370,7 +6373,7 @@
         <xdr:cNvPr id="44" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6432,7 +6435,7 @@
         <xdr:cNvPr id="45" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6494,7 +6497,7 @@
         <xdr:cNvPr id="46" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6556,7 +6559,7 @@
         <xdr:cNvPr id="47" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6610,7 +6613,7 @@
         <xdr:cNvPr id="48" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6664,7 +6667,7 @@
         <xdr:cNvPr id="49" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6716,6 +6719,62 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -21033,7 +21092,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21133,7 +21192,7 @@
         <v>868</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>948</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>74</v>
@@ -21159,7 +21218,7 @@
         <v>868</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>948</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>74</v>
@@ -21185,7 +21244,7 @@
         <v>943</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>948</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>74</v>
@@ -21211,7 +21270,7 @@
         <v>944</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>948</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>74</v>

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1540" yWindow="1700" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="948">
   <si>
     <t>Field</t>
   </si>
@@ -2904,9 +2904,6 @@
   </si>
   <si>
     <t>aibl_flutemeta_*.csv</t>
-  </si>
-  <si>
-    <t>MM/DD/YYYY</t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3286,7 @@
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3343,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3400,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3457,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3514,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3571,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3628,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3685,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3742,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +3799,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3856,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3913,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3973,7 +3970,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4027,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4084,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4141,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4198,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,7 +4255,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4312,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4369,7 @@
         <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4429,7 +4426,7 @@
         <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4486,7 +4483,7 @@
         <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4543,7 +4540,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4600,7 +4597,7 @@
         <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4657,7 +4654,7 @@
         <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4714,7 +4711,7 @@
         <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4771,7 +4768,7 @@
         <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +4825,7 @@
         <xdr:cNvPr id="28" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +4882,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4947,7 +4944,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5009,7 +5006,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5071,7 +5068,7 @@
         <xdr:cNvPr id="1024" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000000040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5133,7 +5130,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +5192,7 @@
         <xdr:cNvPr id="1027" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5257,7 +5254,7 @@
         <xdr:cNvPr id="1028" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5319,7 +5316,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5381,7 +5378,7 @@
         <xdr:cNvPr id="1030" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5443,7 +5440,7 @@
         <xdr:cNvPr id="1031" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5505,7 +5502,7 @@
         <xdr:cNvPr id="1032" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5567,7 +5564,7 @@
         <xdr:cNvPr id="1033" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5629,7 +5626,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5691,7 +5688,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5753,7 +5750,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5815,7 +5812,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5877,7 +5874,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5939,7 +5936,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6001,7 +5998,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6063,7 +6060,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6125,7 +6122,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6187,7 +6184,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6249,7 +6246,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6311,7 +6308,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6373,7 +6370,7 @@
         <xdr:cNvPr id="44" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6435,7 +6432,7 @@
         <xdr:cNvPr id="45" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6497,7 +6494,7 @@
         <xdr:cNvPr id="46" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6559,7 +6556,7 @@
         <xdr:cNvPr id="47" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6613,7 +6610,7 @@
         <xdr:cNvPr id="48" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6667,7 +6664,7 @@
         <xdr:cNvPr id="49" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6790,6 +6787,62 @@
           <a:ahLst/>
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -16542,7 +16595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N431"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G421" sqref="G421"/>
     </sheetView>
@@ -21091,8 +21144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21192,7 +21245,7 @@
         <v>868</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>948</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>74</v>
@@ -21218,7 +21271,7 @@
         <v>868</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>948</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>74</v>
@@ -21244,7 +21297,7 @@
         <v>943</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>948</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>74</v>
@@ -21270,7 +21323,7 @@
         <v>944</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>948</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>74</v>

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandre.routier/Projects/Git/clinica_t1_linear/clinica/iotools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elina.thibeausutre/Documents/code/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30152F-6A89-224E-98FF-4894B6AC576A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="1700" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
     <sheet name="sessions.tsv" sheetId="2" r:id="rId2"/>
     <sheet name="scans.tsv" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,19 +29,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">It is exactly ? or does it include non alphanumeric characters ?
 </t>
@@ -52,7 +50,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Olivier Colliot</t>
         </r>
@@ -63,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="948">
   <si>
     <t>Field</t>
   </si>
@@ -107,9 +104,6 @@
     <t>current_study</t>
   </si>
   <si>
-    <t>FDG</t>
-  </si>
-  <si>
     <t>adni_fdg</t>
   </si>
   <si>
@@ -305,9 +299,6 @@
     <t>YYYY-MM-DD HH:MM:SS</t>
   </si>
   <si>
-    <t>Date of PET acquisition</t>
-  </si>
-  <si>
     <t>Modalities related</t>
   </si>
   <si>
@@ -2880,13 +2871,46 @@
   </si>
   <si>
     <t>aibl_apoeres_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_pibmeta_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_mri3meta_*.csv</t>
+  </si>
+  <si>
+    <t>Date of PiB PET acquisition</t>
+  </si>
+  <si>
+    <t>Date of AV45 PET acquisition</t>
+  </si>
+  <si>
+    <t>aibl_av45meta_*.csv</t>
+  </si>
+  <si>
+    <t>aibl_mrimeta_*.csv</t>
+  </si>
+  <si>
+    <t>AV45</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>FLUTE</t>
+  </si>
+  <si>
+    <t>Date of FLUTE PET acquisition</t>
+  </si>
+  <si>
+    <t>aibl_flutemeta_*.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2896,68 +2920,80 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF343637"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2965,42 +3001,50 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3017,12 +3061,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3060,8 +3098,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3146,61 +3190,67 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="55">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+  <cellStyles count="61">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3236,7 +3286,7 @@
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3343,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3400,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +3457,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3514,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3521,7 +3571,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,7 +3628,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3685,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3692,7 +3742,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3749,7 +3799,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3856,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3863,7 +3913,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3920,7 +3970,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3977,7 +4027,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4034,7 +4084,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4091,7 +4141,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4148,7 +4198,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4205,7 +4255,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4312,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4319,7 +4369,7 @@
         <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4376,7 +4426,7 @@
         <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4433,7 +4483,7 @@
         <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,7 +4540,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4547,7 +4597,7 @@
         <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4654,7 @@
         <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4661,7 +4711,7 @@
         <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4718,7 +4768,7 @@
         <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,7 +4825,7 @@
         <xdr:cNvPr id="28" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,7 +4882,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4894,7 +4944,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4956,7 +5006,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,7 +5068,7 @@
         <xdr:cNvPr id="1024" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000000040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5080,7 +5130,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5192,7 @@
         <xdr:cNvPr id="1027" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5204,7 +5254,7 @@
         <xdr:cNvPr id="1028" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5316,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5328,7 +5378,7 @@
         <xdr:cNvPr id="1030" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5390,7 +5440,7 @@
         <xdr:cNvPr id="1031" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5452,7 +5502,7 @@
         <xdr:cNvPr id="1032" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5514,7 +5564,7 @@
         <xdr:cNvPr id="1033" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5576,7 +5626,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5638,7 +5688,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,7 +5750,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5762,7 +5812,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5824,7 +5874,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5886,7 +5936,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5948,7 +5998,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6010,7 +6060,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6072,7 +6122,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6134,7 +6184,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6196,7 +6246,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6258,7 +6308,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6320,7 +6370,7 @@
         <xdr:cNvPr id="44" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6382,7 +6432,7 @@
         <xdr:cNvPr id="45" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6444,7 +6494,7 @@
         <xdr:cNvPr id="46" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6506,7 +6556,7 @@
         <xdr:cNvPr id="47" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6610,7 @@
         <xdr:cNvPr id="48" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6614,7 +6664,7 @@
         <xdr:cNvPr id="49" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6647,6 +6697,174 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6915,10 +7133,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -6943,25 +7161,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
@@ -6971,16 +7189,16 @@
     </row>
     <row r="2" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="22"/>
@@ -7015,26 +7233,26 @@
     </row>
     <row r="3" spans="1:34" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -7065,14 +7283,14 @@
     </row>
     <row r="4" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="22"/>
@@ -7107,14 +7325,14 @@
     </row>
     <row r="5" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="22"/>
@@ -7149,16 +7367,16 @@
     </row>
     <row r="6" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="22"/>
@@ -7193,22 +7411,22 @@
     </row>
     <row r="7" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -7241,28 +7459,28 @@
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -7293,24 +7511,24 @@
     </row>
     <row r="9" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="22"/>
       <c r="G9" s="16" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -7341,13 +7559,13 @@
     </row>
     <row r="10" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -7383,24 +7601,24 @@
     </row>
     <row r="11" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="C11" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="22"/>
       <c r="G11" s="16" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -7431,16 +7649,16 @@
     </row>
     <row r="12" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="22"/>
@@ -7476,7 +7694,7 @@
     <row r="13" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="16" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -7513,22 +7731,22 @@
     </row>
     <row r="14" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -7562,7 +7780,7 @@
     <row r="15" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -7600,17 +7818,17 @@
     <row r="16" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="22"/>
       <c r="G16" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -7641,24 +7859,24 @@
     </row>
     <row r="17" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="C17" s="16" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="22"/>
       <c r="G17" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H17" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -7689,10 +7907,10 @@
     </row>
     <row r="18" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7729,16 +7947,16 @@
     </row>
     <row r="19" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="22"/>
@@ -7774,15 +7992,15 @@
     <row r="20" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="16" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -7816,15 +8034,15 @@
     <row r="21" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="16" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -7858,13 +8076,13 @@
     <row r="22" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="22"/>
@@ -7899,20 +8117,20 @@
     </row>
     <row r="23" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="16"/>
       <c r="F23" s="22"/>
       <c r="G23" s="16" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H23" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -7944,13 +8162,13 @@
     <row r="24" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="22"/>
@@ -8022,13 +8240,13 @@
     <row r="26" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="22"/>
@@ -8064,13 +8282,13 @@
     <row r="27" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="22"/>
@@ -8106,13 +8324,13 @@
     <row r="28" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28"/>
       <c r="F28" s="22"/>
@@ -8147,16 +8365,16 @@
     </row>
     <row r="29" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="22"/>
@@ -8228,10 +8446,10 @@
     <row r="31" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="16"/>
@@ -8268,10 +8486,10 @@
     <row r="32" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="16" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="16"/>
@@ -8308,10 +8526,10 @@
     <row r="33" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="16"/>
@@ -8347,14 +8565,14 @@
     </row>
     <row r="34" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="22"/>
@@ -8390,11 +8608,11 @@
     <row r="35" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="16" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="22"/>
@@ -8430,7 +8648,7 @@
     <row r="36" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="16" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -8467,7 +8685,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="16" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="16"/>
@@ -8480,7 +8698,7 @@
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="16"/>
@@ -8493,7 +8711,7 @@
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="16"/>
@@ -8506,7 +8724,7 @@
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="16"/>
@@ -16374,11 +16592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N431"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G421" sqref="G421"/>
     </sheetView>
   </sheetViews>
@@ -16405,34 +16623,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -16449,7 +16667,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -16460,22 +16678,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -16486,13 +16704,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16500,4420 +16718,4420 @@
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M57" s="17"/>
     </row>
     <row r="58" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M58" s="17"/>
     </row>
     <row r="59" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="M59" s="17"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="M60" s="17"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M61" s="17"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="M63" s="17"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M64" s="17"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="M65" s="17"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G234" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G236" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G237" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G238" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G239" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G240" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G241" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G246" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G248" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G249" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="250" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G250" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G257" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G258" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G259" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="260" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G265" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G266" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G268" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="270" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G271" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="273" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="275" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="276" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="277" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="279" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="282" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="283" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G283" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="284" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G284" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="285" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G285" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="286" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G286" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="287" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G287" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="288" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="289" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="290" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G290" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="291" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G291" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="292" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G292" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="293" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="294" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="295" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="296" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G296" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="297" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G297" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="298" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G298" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="299" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="300" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G300" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="301" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G301" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="302" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G302" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="303" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G303" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="304" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G304" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="305" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G305" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="306" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G306" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="307" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G307" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="308" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="309" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G309" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="310" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G310" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="311" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G311" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="312" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="313" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="314" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G314" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="315" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="316" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="317" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="318" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G318" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="319" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="320" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="321" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G321" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="322" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G322" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="323" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G323" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="324" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G324" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="325" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G325" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="326" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G326" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="327" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G327" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="328" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G328" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="329" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G329" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="330" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="331" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G331" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="332" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G332" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="333" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G333" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="334" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G334" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G335" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="336" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G336" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G337" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="338" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G338" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="339" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G339" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="340" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G340" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="341" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G341" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="342" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G342" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="343" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G343" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="344" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G344" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="345" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G345" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="346" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G346" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="347" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G347" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="348" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G348" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="349" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="350" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G350" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="351" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G351" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="352" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G352" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="353" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G353" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="354" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G354" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="355" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G355" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="356" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G356" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="357" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G357" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="358" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G358" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="359" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G359" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="360" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G360" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="361" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G361" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="362" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G362" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="363" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G363" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="364" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G364" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="365" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G365" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="366" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G366" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="367" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G367" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="368" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G368" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="369" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G369" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="370" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G370" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="371" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G371" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G372" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="373" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G373" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="374" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G374" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="375" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G375" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="376" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G376" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="377" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G377" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="378" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G378" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="379" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G379" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="380" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G380" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="381" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G381" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="382" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G382" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="383" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G383" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="384" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D384" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G384" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="385" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D385" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G385" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="386" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D386" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G386" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="387" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D387" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G387" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="388" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G388" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="389" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G389" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="390" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G390" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="391" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G391" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="392" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D392" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G392" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="393" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D393" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G393" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="394" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G394" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G395" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="396" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G396" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="397" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G397" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="398" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D398" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G398" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="399" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D399" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G399" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="400" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D400" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G400" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="401" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D401" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G401" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="402" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D402" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G402" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="403" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G403" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="404" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D404" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G404" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G405" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="406" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G406" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="407" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D407" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G407" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="408" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D408" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G408" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="409" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G409" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="410" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="8" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G410" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="411" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D411" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G411" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="412" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="8" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G412" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="413" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G413" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="414" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G414" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="415" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="8" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D415" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G415" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="416" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D416" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G416" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D417" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G417" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="418" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G418" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="419" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="8" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G419" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G420" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="421" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D421" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G421" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="422" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D422" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G422" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="423" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D423" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G423" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="424" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G424" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="425" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D425" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G425" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="426" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D426" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G426" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="427" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D427" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G427" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="428" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D428" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G428" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="429" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D429" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G429" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="430" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D430" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G430" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="431" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D431" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G431" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -20923,142 +21141,239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="2" max="3" width="23.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>903</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>904</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>870</v>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elina.thibeausutre/Documents/code/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DD2179-B2E3-A14D-92C1-EDDFF24ADDC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1700" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1540" yWindow="1700" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
     <sheet name="sessions.tsv" sheetId="2" r:id="rId2"/>
     <sheet name="scans.tsv" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="955">
   <si>
     <t>Field</t>
   </si>
@@ -2904,12 +2905,33 @@
   </si>
   <si>
     <t>aibl_flutemeta_*.csv</t>
+  </si>
+  <si>
+    <t>CAPP</t>
+  </si>
+  <si>
+    <t>CAPP location</t>
+  </si>
+  <si>
+    <t>PREVDEMALS</t>
+  </si>
+  <si>
+    <t>PREVDEMALS location</t>
+  </si>
+  <si>
+    <t>Date IRM à M0</t>
+  </si>
+  <si>
+    <t>2016.07.04_CAPP_Database/M0</t>
+  </si>
+  <si>
+    <t>Date TEP à M0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3161,7 +3183,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3189,6 +3211,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -3286,7 +3311,7 @@
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3368,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3425,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3482,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3539,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3571,7 +3596,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3628,7 +3653,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3710,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,7 +3767,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3799,7 +3824,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,7 +3881,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,7 +3938,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3970,7 +3995,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4052,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4084,7 +4109,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4141,7 +4166,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4198,7 +4223,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,7 +4280,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,7 +4337,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4394,7 @@
         <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4451,7 @@
         <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4483,7 +4508,7 @@
         <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,7 +4565,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,7 +4622,7 @@
         <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4654,7 +4679,7 @@
         <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4711,7 +4736,7 @@
         <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4768,7 +4793,7 @@
         <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,7 +4850,7 @@
         <xdr:cNvPr id="28" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4907,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4944,7 +4969,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5006,7 +5031,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5093,7 @@
         <xdr:cNvPr id="1024" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000000040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5155,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5192,7 +5217,7 @@
         <xdr:cNvPr id="1027" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,7 +5279,7 @@
         <xdr:cNvPr id="1028" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5341,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5378,7 +5403,7 @@
         <xdr:cNvPr id="1030" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5440,7 +5465,7 @@
         <xdr:cNvPr id="1031" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5527,7 @@
         <xdr:cNvPr id="1032" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5564,7 +5589,7 @@
         <xdr:cNvPr id="1033" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5626,7 +5651,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5688,7 +5713,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5750,7 +5775,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5812,7 +5837,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5874,7 +5899,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5936,7 +5961,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5998,7 +6023,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6060,7 +6085,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6122,7 +6147,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6184,7 +6209,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6246,7 +6271,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,7 +6333,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6370,7 +6395,7 @@
         <xdr:cNvPr id="44" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6432,7 +6457,7 @@
         <xdr:cNvPr id="45" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6494,7 +6519,7 @@
         <xdr:cNvPr id="46" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6556,7 +6581,7 @@
         <xdr:cNvPr id="47" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6610,7 +6635,7 @@
         <xdr:cNvPr id="48" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FC6F13-9AD9-7342-B03F-FDF51A665098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6664,7 +6689,7 @@
         <xdr:cNvPr id="49" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA0262D6-9831-EA4A-95B3-7CDD3830145E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6715,7 +6740,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="AutoShape 1"/>
+        <xdr:cNvPr id="50" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6771,7 +6802,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="AutoShape 1"/>
+        <xdr:cNvPr id="51" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6827,7 +6864,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="AutoShape 1"/>
+        <xdr:cNvPr id="52" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6865,6 +6908,60 @@
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13982700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -7133,7 +7230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1021"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -16592,10 +16689,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G421" sqref="G421"/>
     </sheetView>
@@ -21141,238 +21238,303 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="3" width="23.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="2" max="3" width="14.5" style="27"/>
+    <col min="4" max="6" width="23.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="27" customWidth="1"/>
+    <col min="9" max="11" width="21.1640625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="26" t="s">
+        <v>952</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="26" t="s">
+        <v>954</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="2" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="2" t="s">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="2" t="s">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>868</v>
       </c>
     </row>

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="942">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -3269,9 +3269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3281,7 +3281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="25039440" cy="13092840"/>
+          <a:ext cx="25039800" cy="13092480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3314,9 +3314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3326,7 +3326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="25039440" cy="13067640"/>
+          <a:ext cx="25039800" cy="13067280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3359,9 +3359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3371,7 +3371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="25039440" cy="13448520"/>
+          <a:ext cx="25039800" cy="13448160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3404,9 +3404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3416,7 +3416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="25039440" cy="13448520"/>
+          <a:ext cx="25039800" cy="13448160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3449,9 +3449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3461,7 +3461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="25039440" cy="13448520"/>
+          <a:ext cx="25039800" cy="13448160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3494,9 +3494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3506,7 +3506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="25039440" cy="13448520"/>
+          <a:ext cx="25039800" cy="13448160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3539,9 +3539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3551,7 +3551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="25039440" cy="13448520"/>
+          <a:ext cx="25039800" cy="13448160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3584,9 +3584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>592560</xdr:colOff>
+      <xdr:colOff>592200</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3596,7 +3596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="20074680" cy="13054680"/>
+          <a:ext cx="20075040" cy="13054320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3629,9 +3629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>722160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3641,7 +3641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="24709320" cy="13054680"/>
+          <a:ext cx="24709680" cy="13054320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3674,9 +3674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>722160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3686,7 +3686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="24709320" cy="13054680"/>
+          <a:ext cx="24709680" cy="13054320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3719,9 +3719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>722160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3731,7 +3731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="24709320" cy="13054680"/>
+          <a:ext cx="24709680" cy="13054320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3764,9 +3764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>722160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3776,7 +3776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="24709320" cy="13054680"/>
+          <a:ext cx="24709680" cy="13054320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3809,9 +3809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3821,7 +3821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13270680"/>
+          <a:ext cx="13585320" cy="13270320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3854,9 +3854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3866,7 +3866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3899,9 +3899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3911,7 +3911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3944,9 +3944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3956,7 +3956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3989,9 +3989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4001,7 +4001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4034,9 +4034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4046,7 +4046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4079,9 +4079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4091,7 +4091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4124,9 +4124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4136,7 +4136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4169,9 +4169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4181,7 +4181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4214,9 +4214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4226,7 +4226,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4259,9 +4259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4271,7 +4271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4304,9 +4304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1497960</xdr:colOff>
+      <xdr:colOff>1497600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4316,7 +4316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13584960" cy="13080240"/>
+          <a:ext cx="13585320" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4349,9 +4349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>926280</xdr:colOff>
+      <xdr:colOff>925920</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4361,7 +4361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10015560" cy="13080240"/>
+          <a:ext cx="10015920" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4394,9 +4394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>926280</xdr:colOff>
+      <xdr:colOff>925920</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4406,7 +4406,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10015560" cy="13080240"/>
+          <a:ext cx="10015920" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4439,9 +4439,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>926280</xdr:colOff>
+      <xdr:colOff>925920</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4451,7 +4451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10015560" cy="13080240"/>
+          <a:ext cx="10015920" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4484,9 +4484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>926280</xdr:colOff>
+      <xdr:colOff>925920</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4496,7 +4496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10015560" cy="13080240"/>
+          <a:ext cx="10015920" cy="13079880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4530,7 +4530,7 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -5350,7 +5350,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M9" activeCellId="0" sqref="M9"/>
+      <selection pane="topRight" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5619,8 +5619,14 @@
       <c r="J20" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L20" s="11" t="s">
         <v>58</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9910,7 +9916,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/clinica/iotools/data/clinical_specifications.xlsx
+++ b/clinica/iotools/data/clinical_specifications.xlsx
@@ -9914,10 +9914,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10052,6 +10052,8 @@
         <v>933</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
